--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777186.404878571</v>
+        <v>774750.7679548643</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11549319.31190523</v>
+        <v>11549319.31190522</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>127.6008430030838</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>125.3146872343255</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +871,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693916</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>86.75755423205456</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>25.77887856691298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>385.3212365072015</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.9236587943919</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>59.6466282323932</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953554247</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.2522290007367</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.20387780016288</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.9813656337151</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754663</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119343</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.96773436094644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834054</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890347</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833559</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016467</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881291</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.25102067617468</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856398</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986291</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.7250005831127</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189125</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D31" t="n">
-        <v>77.73359659137193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>140.5758943588662</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.70399854268017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699758</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.5813113004304</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>3.006892987833667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>28.54004930889221</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.167618932618</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2990.738333586236</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2659.675446242666</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.906790972551</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2306.906790972551</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.76745899674</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.3097953702099</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>339.3097953702099</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>339.3097953702099</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
         <v>212.7293032143256</v>
@@ -4480,22 +4480,22 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419971</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439798</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9582602004497</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>915.744459651846</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.9203821015076</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>482.9841991736007</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4762,13 +4762,13 @@
         <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995249</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>651.9203821015076</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.9203821015076</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>855.5289736739893</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>686.5927907460824</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>686.5927907460824</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>538.6796971636893</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>391.7897496657789</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>224.0869130404979</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.177438504229</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>1037.177438504229</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408906</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468494</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>808.0306171421903</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263499</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738914</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035378</v>
@@ -5036,55 +5036,55 @@
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856288</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882246</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3863.682372850014</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.880262365793</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3406.389545998402</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3075.326658654831</v>
+        <v>3038.23241826048</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.558003384717</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2722.558003384717</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2332.418671408906</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792131</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>231.6995439015571</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>654.9873513288671</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1168.301125572757</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1709.609432923824</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2182.580985789574</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.849288629729</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2400.608216713074</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>2400.608216713074</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="D13" t="n">
-        <v>2250.491577300738</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>2250.491577300738</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>2250.491577300738</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>2083.011679777281</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>1938.776624282263</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>1848.155333908182</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>1908.72610114353</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>2138.099315029261</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>2487.144492972382</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>2865.552816462712</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>3240.398052226485</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>3570.61200239934</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>3829.646400766012</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>3925.553311234596</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>3845.747006697764</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>3657.946343053647</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>3437.132285603694</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>3437.132285603694</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>3182.447797397807</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>2893.030627360847</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>2665.04107646283</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>2444.2484973193</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060308</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060308</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3593983639618</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0917312077131</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>915.0917312077131</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1537.187694607049</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>2084.064169607243</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
         <v>2286.888151551083</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.9051219233173</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>698.9051219233173</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="D16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818314</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373413</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.5535867535571</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,13 +5783,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>194.800778399826</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.1865537761984</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356179</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232822</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.701244340889</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429787</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000567</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038341</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.964082041488</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C28" t="n">
-        <v>929.0278991135804</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D28" t="n">
-        <v>778.9112597012446</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E28" t="n">
-        <v>630.9981661188515</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,10 +6403,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.405126015258</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.612546871728</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770314</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491245</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782972</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797754</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750801</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072712</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,22 +6713,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434715</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155646</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>550.9217088032287</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208357</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400648</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257311</v>
+        <v>344.917417812158</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>344.917417812158</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.004324229765</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.004324229765</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038282</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797683</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910803</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S40" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138347</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703046</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>408.9258559154851</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E43" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
         <v>2044.506784258106</v>
@@ -7609,10 +7609,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654816</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830886</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187075</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.72329799040422</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.6281023817744</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767662</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.29152613729246</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537574</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.6169189911483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844822863</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823358</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.9958004224532</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6960474398185568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88187642684042</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>4.845153664065009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.12798163925713</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372229307</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.44497470121416</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6085800303787</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.4862366927524</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915702.5118650643</v>
+        <v>915702.5118650638</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996091.5435218465</v>
+        <v>996091.5435218468</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1001563.407885517</v>
+        <v>1001563.407885516</v>
       </c>
     </row>
     <row r="10">
@@ -26320,13 +26320,13 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
         <v>421406.8801099661</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
@@ -26338,22 +26338,22 @@
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.964837253</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185171</v>
+        <v>143114.1392185158</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.347105138</v>
       </c>
       <c r="G3" t="n">
         <v>11167.2362355791</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115364</v>
+        <v>37377.32855115338</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848876</v>
+        <v>43782.40655848898</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
@@ -26430,10 +26430,10 @@
         <v>13600.27549061739</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26445,16 +26445,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1098425.599993431</v>
       </c>
       <c r="C6" t="n">
-        <v>230319.1457341614</v>
+        <v>230319.1457341613</v>
       </c>
       <c r="D6" t="n">
-        <v>230319.1457341614</v>
+        <v>230319.1457341615</v>
       </c>
       <c r="E6" t="n">
-        <v>144238.889436144</v>
+        <v>144028.9251923005</v>
       </c>
       <c r="F6" t="n">
-        <v>141143.1290003736</v>
+        <v>141097.2240048067</v>
       </c>
       <c r="G6" t="n">
-        <v>297855.3906659244</v>
+        <v>297820.6527404885</v>
       </c>
       <c r="H6" t="n">
-        <v>309022.6269015033</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="I6" t="n">
-        <v>309022.6269015034</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="J6" t="n">
-        <v>91491.42450422588</v>
+        <v>91456.68657879013</v>
       </c>
       <c r="K6" t="n">
-        <v>309022.6269015032</v>
+        <v>308987.8889760679</v>
       </c>
       <c r="L6" t="n">
-        <v>309022.6269015031</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="M6" t="n">
-        <v>271645.2983503498</v>
+        <v>271610.5604249142</v>
       </c>
       <c r="N6" t="n">
-        <v>265240.2203430144</v>
+        <v>265205.4824175788</v>
       </c>
       <c r="O6" t="n">
-        <v>305999.3289242785</v>
+        <v>305964.5909988428</v>
       </c>
       <c r="P6" t="n">
-        <v>309022.6269015033</v>
+        <v>308987.8889760675</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808649</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012587</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288148</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063564</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364211</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063564</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173581</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063564</v>
+        <v>149.9868724063554</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364211</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>123.3943289558182</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>21.11927541224371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161596</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>295.1728158402072</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>122.8365944512994</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177370929</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.55480923450995</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230211</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>85.10838668192758</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>2.450898743215172e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.362749523238686e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-2.110311925207498e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-7.058944205806818e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.067033413120292e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.828937001846498e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-4.233062625829852e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>173.0813192999589</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533297</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>338.8471164485115</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>650.5350891770659</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>679.7882761221643</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>35.23988032559996</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936578</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>204.8727090341813</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>322.3705304098922</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295542</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>519.1933770937326</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>548.4465640388311</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096288</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
